--- a/app/config/tables/VaccineManager/forms/VaccineManager/VaccineManager.xlsx
+++ b/app/config/tables/VaccineManager/forms/VaccineManager/VaccineManager.xlsx
@@ -5,16 +5,17 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\StudioProjects\app-designer\app\config\tables\VaccineManager\forms\VaccineManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\StudioProjects\odkVaccine\app\config\tables\VaccineManager\forms\VaccineManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="180" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
+    <workbookView xWindow="1485" yWindow="0" windowWidth="25605" windowHeight="16080" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
-    <sheet name="settings" sheetId="2" r:id="rId2"/>
-    <sheet name="properties" sheetId="3" r:id="rId3"/>
+    <sheet name="choices" sheetId="3" r:id="rId2"/>
+    <sheet name="settings" sheetId="2" r:id="rId3"/>
+    <sheet name="properties" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -26,11 +27,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
   <si>
     <t>type</t>
   </si>
   <si>
+    <t>values_list</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -40,6 +44,21 @@
     <t>text</t>
   </si>
   <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Enter the name of the plot:</t>
+  </si>
+  <si>
+    <t>geopoint</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Capture location:</t>
+  </si>
+  <si>
     <t>setting_name</t>
   </si>
   <si>
@@ -49,13 +68,61 @@
     <t>display.title</t>
   </si>
   <si>
+    <t>form_id</t>
+  </si>
+  <si>
     <t>form_version</t>
   </si>
   <si>
     <t>survey</t>
   </si>
   <si>
-    <t>integer</t>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>plant_type</t>
+  </si>
+  <si>
+    <t>select_one</t>
+  </si>
+  <si>
+    <t>What type of plant is in this plot?</t>
+  </si>
+  <si>
+    <t>choice_list_name</t>
+  </si>
+  <si>
+    <t>data_value</t>
+  </si>
+  <si>
+    <t>corn</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>Corn</t>
+  </si>
+  <si>
+    <t>Bean</t>
+  </si>
+  <si>
+    <t>Cotton</t>
+  </si>
+  <si>
+    <t>planting</t>
+  </si>
+  <si>
+    <t>plot_name</t>
+  </si>
+  <si>
+    <t>table_id</t>
+  </si>
+  <si>
+    <t>disableSwipeNavigation</t>
   </si>
   <si>
     <t>partition</t>
@@ -79,47 +146,65 @@
     <t>array</t>
   </si>
   <si>
-    <t>["FMT_FOL_date","FMT_FOL_B_focal_AnimID","FMT_time","FMT_FMP_seq_num","FMT_notes","FMT_fixed","FMT_FOL_foll_num"]</t>
-  </si>
-  <si>
-    <t>begin screen</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>end screen</t>
-  </si>
-  <si>
-    <t>Enter yo name:</t>
-  </si>
-  <si>
-    <t>Enter yo age:</t>
-  </si>
-  <si>
-    <t>form_id</t>
-  </si>
-  <si>
-    <t>vaccine_form</t>
-  </si>
-  <si>
-    <t>Vaccine Manager</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>table_id</t>
-  </si>
-  <si>
-    <t>vaccine_table</t>
+    <t>["plot_name","location_latitude","location_longitude","location_altitude","location_accuracy","planting"]</t>
+  </si>
+  <si>
+    <t>detailViewFileName</t>
+  </si>
+  <si>
+    <t>configpath</t>
+  </si>
+  <si>
+    <t>listViewFileName</t>
+  </si>
+  <si>
+    <t>defaultViewType</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>MAP</t>
+  </si>
+  <si>
+    <t>TableMapFragment</t>
+  </si>
+  <si>
+    <t>keyMapLatCol</t>
+  </si>
+  <si>
+    <t>keyMapLongCol</t>
+  </si>
+  <si>
+    <t>location_latitude</t>
+  </si>
+  <si>
+    <t>location_longitude</t>
+  </si>
+  <si>
+    <t>keyColorRuleType</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>mapListViewFileName</t>
+  </si>
+  <si>
+    <t>VaccineManager</t>
+  </si>
+  <si>
+    <t>config/tables/VaccineManager/html/VaccineManager_detail.html</t>
+  </si>
+  <si>
+    <t>config/tables/VaccineManager/html/VaccineManager_list.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -134,29 +219,47 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF444444"/>
-      <name val="Trebuchet MS"/>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Trebuchet MS"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -168,42 +271,70 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="19">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -540,149 +671,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="21.625" customWidth="1"/>
-    <col min="5" max="5" width="34.625" customWidth="1"/>
-    <col min="6" max="6" width="54.125" customWidth="1"/>
+    <col min="1" max="1" width="14" style="7" customWidth="1"/>
+    <col min="5" max="5" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -693,79 +754,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="C4" t="s">
         <v>27</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -776,49 +822,256 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="43" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>20140331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="5" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
